--- a/public/data/lime/lime_table_ghana.xlsx
+++ b/public/data/lime/lime_table_ghana.xlsx
@@ -2008,13 +2008,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>5.37</v>
+        <v>5.02</v>
       </c>
       <c r="E2" t="n">
-        <v>3.76</v>
+        <v>3.01</v>
       </c>
       <c r="F2" t="n">
-        <v>1.92</v>
+        <v>0.93</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.97</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.13</v>
+        <v>2.32</v>
       </c>
       <c r="L2" t="n">
-        <v>1.08</v>
+        <v>0.32</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4.41</v>
       </c>
       <c r="E3" t="n">
-        <v>2.82</v>
+        <v>1.54</v>
       </c>
       <c r="F3" t="n">
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.97</v>
+        <v>3.37</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>0.71</v>
       </c>
       <c r="L3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2102,13 +2102,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>4.34</v>
+        <v>3.82</v>
       </c>
       <c r="E4" t="n">
-        <v>2.56</v>
+        <v>1.47</v>
       </c>
       <c r="F4" t="n">
-        <v>0.75</v>
+        <v>0.12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2120,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.66</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.71</v>
+        <v>0.66</v>
       </c>
       <c r="L4" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2149,31 +2149,31 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>4.19</v>
       </c>
-      <c r="E5" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.67</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.81</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -2196,13 +2196,13 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>4.09</v>
+        <v>3.59</v>
       </c>
       <c r="E6" t="n">
-        <v>2.27</v>
+        <v>1.23</v>
       </c>
       <c r="F6" t="n">
-        <v>0.51</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>2.79</v>
       </c>
       <c r="K6" t="n">
-        <v>1.31</v>
+        <v>0.41</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -2243,13 +2243,13 @@
         <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>4.16</v>
+        <v>3.64</v>
       </c>
       <c r="E7" t="n">
-        <v>2.27</v>
+        <v>1.16</v>
       </c>
       <c r="F7" t="n">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2261,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.69</v>
+        <v>3.16</v>
       </c>
       <c r="K7" t="n">
-        <v>1.68</v>
+        <v>0.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>3.72</v>
+        <v>3.13</v>
       </c>
       <c r="E8" t="n">
-        <v>1.67</v>
+        <v>0.73</v>
       </c>
       <c r="F8" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2308,13 +2308,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.41</v>
+        <v>2.83</v>
       </c>
       <c r="K8" t="n">
-        <v>1.3</v>
+        <v>0.53</v>
       </c>
       <c r="L8" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -2337,13 +2337,13 @@
         <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>4.41</v>
+        <v>3.94</v>
       </c>
       <c r="E9" t="n">
-        <v>2.67</v>
+        <v>1.67</v>
       </c>
       <c r="F9" t="n">
-        <v>0.84</v>
+        <v>0.29</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2355,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="K9" t="n">
-        <v>2.07</v>
+        <v>1.05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2384,10 +2384,10 @@
         <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>2.66</v>
+        <v>2.11</v>
       </c>
       <c r="E10" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.52</v>
+        <v>0.84</v>
       </c>
       <c r="K10" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>97</v>
       </c>
       <c r="D11" t="n">
-        <v>3.93</v>
+        <v>3.37</v>
       </c>
       <c r="E11" t="n">
-        <v>1.87</v>
+        <v>0.76</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7</v>
+        <v>0.17</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>5.13</v>
+        <v>4.76</v>
       </c>
       <c r="E12" t="n">
-        <v>3.5</v>
+        <v>2.73</v>
       </c>
       <c r="F12" t="n">
-        <v>1.63</v>
+        <v>0.64</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.61</v>
+        <v>2.09</v>
       </c>
       <c r="K12" t="n">
-        <v>1.08</v>
+        <v>0.49</v>
       </c>
       <c r="L12" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2543,16 +2543,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.93</v>
+        <v>1.22</v>
       </c>
       <c r="K13" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>4.82</v>
+        <v>3.91</v>
       </c>
       <c r="E14" t="n">
-        <v>2.56</v>
+        <v>0.76</v>
       </c>
       <c r="F14" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2590,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.64</v>
+        <v>3.89</v>
       </c>
       <c r="K14" t="n">
-        <v>2.45</v>
+        <v>1.08</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2637,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.83</v>
+        <v>2.12</v>
       </c>
       <c r="K15" t="n">
-        <v>0.92</v>
+        <v>0.35</v>
       </c>
       <c r="L15" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>102</v>
       </c>
       <c r="D16" t="n">
-        <v>4.49</v>
+        <v>3.8</v>
       </c>
       <c r="E16" t="n">
-        <v>2.19</v>
+        <v>0.73</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.08</v>
+        <v>2.45</v>
       </c>
       <c r="K16" t="n">
-        <v>1.2</v>
+        <v>0.56</v>
       </c>
       <c r="L16" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="M16" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>103</v>
       </c>
       <c r="D17" t="n">
-        <v>5.33</v>
+        <v>4.79</v>
       </c>
       <c r="E17" t="n">
-        <v>3.44</v>
+        <v>2.27</v>
       </c>
       <c r="F17" t="n">
-        <v>1.23</v>
+        <v>0.13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2731,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.46</v>
+        <v>3.87</v>
       </c>
       <c r="K17" t="n">
-        <v>2.47</v>
+        <v>1.42</v>
       </c>
       <c r="L17" t="n">
-        <v>0.62</v>
+        <v>0.03</v>
       </c>
       <c r="M17" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>104</v>
       </c>
       <c r="D18" t="n">
-        <v>4.75</v>
+        <v>4.31</v>
       </c>
       <c r="E18" t="n">
-        <v>3.02</v>
+        <v>2.14</v>
       </c>
       <c r="F18" t="n">
-        <v>1.22</v>
+        <v>0.4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2778,16 +2778,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.16</v>
+        <v>2.61</v>
       </c>
       <c r="K18" t="n">
-        <v>1.32</v>
+        <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="M18" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>105</v>
       </c>
       <c r="D19" t="n">
-        <v>5.39</v>
+        <v>4.95</v>
       </c>
       <c r="E19" t="n">
-        <v>3.6</v>
+        <v>2.64</v>
       </c>
       <c r="F19" t="n">
-        <v>1.55</v>
+        <v>0.49</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.12</v>
+        <v>4.61</v>
       </c>
       <c r="K19" t="n">
-        <v>3.17</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.07</v>
+        <v>0.33</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>106</v>
       </c>
       <c r="D20" t="n">
-        <v>4.57</v>
+        <v>4.06</v>
       </c>
       <c r="E20" t="n">
-        <v>2.66</v>
+        <v>1.72</v>
       </c>
       <c r="F20" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.33</v>
+        <v>2.79</v>
       </c>
       <c r="K20" t="n">
-        <v>1.35</v>
+        <v>0.53</v>
       </c>
       <c r="L20" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2901,13 +2901,13 @@
         <v>107</v>
       </c>
       <c r="D21" t="n">
-        <v>4.49</v>
+        <v>4.07</v>
       </c>
       <c r="E21" t="n">
-        <v>2.88</v>
+        <v>1.99</v>
       </c>
       <c r="F21" t="n">
-        <v>1.17</v>
+        <v>0.47</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.04</v>
+        <v>2.55</v>
       </c>
       <c r="K21" t="n">
-        <v>1.16</v>
+        <v>0.32</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2948,13 +2948,13 @@
         <v>108</v>
       </c>
       <c r="D22" t="n">
-        <v>6.39</v>
+        <v>5.89</v>
       </c>
       <c r="E22" t="n">
-        <v>4.29</v>
+        <v>3.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1.97</v>
+        <v>0.8</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2966,16 +2966,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.36</v>
+        <v>4.82</v>
       </c>
       <c r="K22" t="n">
-        <v>3.11</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.02</v>
+        <v>0.23</v>
       </c>
       <c r="M22" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>109</v>
       </c>
       <c r="D23" t="n">
-        <v>4.96</v>
+        <v>4.39</v>
       </c>
       <c r="E23" t="n">
-        <v>2.89</v>
+        <v>1.75</v>
       </c>
       <c r="F23" t="n">
-        <v>0.98</v>
+        <v>0.33</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3013,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.54</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.51</v>
+        <v>1.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0.82</v>
+        <v>0.25</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3042,16 +3042,16 @@
         <v>111</v>
       </c>
       <c r="D24" t="n">
-        <v>7.78</v>
+        <v>7.23</v>
       </c>
       <c r="E24" t="n">
-        <v>6.01</v>
+        <v>4.89</v>
       </c>
       <c r="F24" t="n">
-        <v>4.03</v>
+        <v>2.53</v>
       </c>
       <c r="G24" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -3060,16 +3060,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.91</v>
+        <v>7.35</v>
       </c>
       <c r="K24" t="n">
-        <v>5.92</v>
+        <v>4.74</v>
       </c>
       <c r="L24" t="n">
-        <v>3.65</v>
+        <v>1.96</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>112</v>
       </c>
       <c r="D25" t="n">
-        <v>5.61</v>
+        <v>4.99</v>
       </c>
       <c r="E25" t="n">
-        <v>3.98</v>
+        <v>2.71</v>
       </c>
       <c r="F25" t="n">
-        <v>2.18</v>
+        <v>0.92</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.08</v>
+        <v>4.42</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>2.17</v>
       </c>
       <c r="L25" t="n">
-        <v>1.77</v>
+        <v>0.73</v>
       </c>
       <c r="M25" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3136,13 +3136,13 @@
         <v>113</v>
       </c>
       <c r="D26" t="n">
-        <v>7.26</v>
+        <v>6.81</v>
       </c>
       <c r="E26" t="n">
-        <v>5.64</v>
+        <v>4.69</v>
       </c>
       <c r="F26" t="n">
-        <v>3.77</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3154,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7.11</v>
+        <v>6.53</v>
       </c>
       <c r="K26" t="n">
-        <v>5.05</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>2.79</v>
+        <v>1.23</v>
       </c>
       <c r="M26" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>114</v>
       </c>
       <c r="D27" t="n">
-        <v>3.92</v>
+        <v>3.2</v>
       </c>
       <c r="E27" t="n">
-        <v>2.24</v>
+        <v>1.28</v>
       </c>
       <c r="F27" t="n">
-        <v>0.99</v>
+        <v>0.38</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.13</v>
+        <v>4.46</v>
       </c>
       <c r="K27" t="n">
-        <v>3.38</v>
+        <v>2.39</v>
       </c>
       <c r="L27" t="n">
-        <v>1.85</v>
+        <v>0.96</v>
       </c>
       <c r="M27" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>115</v>
       </c>
       <c r="D28" t="n">
-        <v>5.64</v>
+        <v>5.14</v>
       </c>
       <c r="E28" t="n">
-        <v>4.1</v>
+        <v>3.04</v>
       </c>
       <c r="F28" t="n">
-        <v>2.35</v>
+        <v>0.95</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3248,16 +3248,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.17</v>
+        <v>2.44</v>
       </c>
       <c r="K28" t="n">
-        <v>1.49</v>
+        <v>0.81</v>
       </c>
       <c r="L28" t="n">
-        <v>0.51</v>
+        <v>0.12</v>
       </c>
       <c r="M28" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>116</v>
       </c>
       <c r="D29" t="n">
-        <v>5.82</v>
+        <v>5.33</v>
       </c>
       <c r="E29" t="n">
-        <v>4.61</v>
+        <v>3.55</v>
       </c>
       <c r="F29" t="n">
-        <v>3.19</v>
+        <v>1.48</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3295,16 +3295,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="K29" t="n">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
       <c r="L29" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="M29" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3324,13 +3324,13 @@
         <v>118</v>
       </c>
       <c r="D30" t="n">
-        <v>6.9</v>
+        <v>6.38</v>
       </c>
       <c r="E30" t="n">
-        <v>4.71</v>
+        <v>3.67</v>
       </c>
       <c r="F30" t="n">
-        <v>2.41</v>
+        <v>1.2</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.72</v>
+        <v>4.13</v>
       </c>
       <c r="K30" t="n">
-        <v>2.4</v>
+        <v>1.49</v>
       </c>
       <c r="L30" t="n">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3371,13 +3371,13 @@
         <v>119</v>
       </c>
       <c r="D31" t="n">
-        <v>4.73</v>
+        <v>4.16</v>
       </c>
       <c r="E31" t="n">
-        <v>2.47</v>
+        <v>1.47</v>
       </c>
       <c r="F31" t="n">
-        <v>0.76</v>
+        <v>0.27</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3389,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.24</v>
+        <v>3.62</v>
       </c>
       <c r="K31" t="n">
-        <v>1.81</v>
+        <v>0.8</v>
       </c>
       <c r="L31" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3418,13 +3418,13 @@
         <v>120</v>
       </c>
       <c r="D32" t="n">
-        <v>9.07</v>
+        <v>8.29</v>
       </c>
       <c r="E32" t="n">
-        <v>5.49</v>
+        <v>3.8</v>
       </c>
       <c r="F32" t="n">
-        <v>1.65</v>
+        <v>0.21</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.18</v>
+        <v>4.53</v>
       </c>
       <c r="K32" t="n">
-        <v>2.67</v>
+        <v>1.47</v>
       </c>
       <c r="L32" t="n">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3465,13 +3465,13 @@
         <v>121</v>
       </c>
       <c r="D33" t="n">
-        <v>5.34</v>
+        <v>4.77</v>
       </c>
       <c r="E33" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="F33" t="n">
-        <v>1.35</v>
+        <v>0.59</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.03</v>
+        <v>3.47</v>
       </c>
       <c r="K33" t="n">
-        <v>1.89</v>
+        <v>1.06</v>
       </c>
       <c r="L33" t="n">
-        <v>0.47</v>
+        <v>0.07</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3530,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.72</v>
+        <v>2.19</v>
       </c>
       <c r="K34" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>123</v>
       </c>
       <c r="D35" t="n">
-        <v>3.96</v>
+        <v>3.37</v>
       </c>
       <c r="E35" t="n">
-        <v>1.95</v>
+        <v>0.93</v>
       </c>
       <c r="F35" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3577,13 +3577,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.47</v>
+        <v>2.9</v>
       </c>
       <c r="K35" t="n">
-        <v>1.51</v>
+        <v>0.66</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3606,13 +3606,13 @@
         <v>124</v>
       </c>
       <c r="D36" t="n">
-        <v>2.37</v>
+        <v>1.66</v>
       </c>
       <c r="E36" t="n">
-        <v>0.82</v>
+        <v>0.19</v>
       </c>
       <c r="F36" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3624,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="n">
-        <v>1.08</v>
+        <v>0.41</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="M36" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>4.42</v>
+        <v>3.89</v>
       </c>
       <c r="E37" t="n">
-        <v>2.38</v>
+        <v>1.33</v>
       </c>
       <c r="F37" t="n">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3671,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.34</v>
+        <v>3.8</v>
       </c>
       <c r="K37" t="n">
-        <v>2.38</v>
+        <v>1.31</v>
       </c>
       <c r="L37" t="n">
-        <v>0.63</v>
+        <v>0.11</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>126</v>
       </c>
       <c r="D38" t="n">
-        <v>5.04</v>
+        <v>4.42</v>
       </c>
       <c r="E38" t="n">
-        <v>3.37</v>
+        <v>2.08</v>
       </c>
       <c r="F38" t="n">
-        <v>1.56</v>
+        <v>0.72</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>4.04</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
-        <v>2.33</v>
+        <v>1.21</v>
       </c>
       <c r="L38" t="n">
-        <v>0.92</v>
+        <v>0.26</v>
       </c>
       <c r="M38" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3747,13 +3747,13 @@
         <v>127</v>
       </c>
       <c r="D39" t="n">
-        <v>5.7</v>
+        <v>5.14</v>
       </c>
       <c r="E39" t="n">
-        <v>3.53</v>
+        <v>2.35</v>
       </c>
       <c r="F39" t="n">
-        <v>1.29</v>
+        <v>0.46</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3765,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="K39" t="n">
-        <v>1.64</v>
+        <v>0.68</v>
       </c>
       <c r="L39" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>128</v>
       </c>
       <c r="D40" t="n">
-        <v>5.43</v>
+        <v>4.84</v>
       </c>
       <c r="E40" t="n">
-        <v>3.25</v>
+        <v>2.04</v>
       </c>
       <c r="F40" t="n">
-        <v>1.09</v>
+        <v>0.31</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3812,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.88</v>
+        <v>3.27</v>
       </c>
       <c r="K40" t="n">
-        <v>1.68</v>
+        <v>0.63</v>
       </c>
       <c r="L40" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3841,13 +3841,13 @@
         <v>129</v>
       </c>
       <c r="D41" t="n">
-        <v>5.16</v>
+        <v>4.5</v>
       </c>
       <c r="E41" t="n">
-        <v>2.49</v>
+        <v>1.45</v>
       </c>
       <c r="F41" t="n">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3859,13 +3859,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.14</v>
+        <v>2.48</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7</v>
+        <v>0.16</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3888,13 +3888,13 @@
         <v>130</v>
       </c>
       <c r="D42" t="n">
-        <v>5.04</v>
+        <v>4.58</v>
       </c>
       <c r="E42" t="n">
-        <v>3.22</v>
+        <v>2.24</v>
       </c>
       <c r="F42" t="n">
-        <v>1.22</v>
+        <v>0.4</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.47</v>
+        <v>4.97</v>
       </c>
       <c r="K42" t="n">
-        <v>3.45</v>
+        <v>2.45</v>
       </c>
       <c r="L42" t="n">
-        <v>1.37</v>
+        <v>0.46</v>
       </c>
       <c r="M42" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3935,13 +3935,13 @@
         <v>131</v>
       </c>
       <c r="D43" t="n">
-        <v>4.5</v>
+        <v>3.87</v>
       </c>
       <c r="E43" t="n">
-        <v>2.29</v>
+        <v>1.45</v>
       </c>
       <c r="F43" t="n">
-        <v>0.77</v>
+        <v>0.37</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3953,16 +3953,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.01</v>
+        <v>2.16</v>
       </c>
       <c r="K43" t="n">
-        <v>1.1</v>
+        <v>0.57</v>
       </c>
       <c r="L43" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="M43" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>132</v>
       </c>
       <c r="D44" t="n">
-        <v>6.69</v>
+        <v>6.16</v>
       </c>
       <c r="E44" t="n">
-        <v>4.69</v>
+        <v>3.58</v>
       </c>
       <c r="F44" t="n">
-        <v>2.49</v>
+        <v>1.21</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4000,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>4.97</v>
+        <v>4.45</v>
       </c>
       <c r="K44" t="n">
-        <v>2.89</v>
+        <v>1.91</v>
       </c>
       <c r="L44" t="n">
-        <v>1.04</v>
+        <v>0.36</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>134</v>
       </c>
       <c r="D46" t="n">
-        <v>0.87</v>
+        <v>0.23</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4094,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.97</v>
+        <v>0.38</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4123,13 +4123,13 @@
         <v>135</v>
       </c>
       <c r="D47" t="n">
-        <v>3.01</v>
+        <v>2.39</v>
       </c>
       <c r="E47" t="n">
-        <v>0.89</v>
+        <v>0.18</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>3.11</v>
+        <v>2.5</v>
       </c>
       <c r="K47" t="n">
-        <v>0.98</v>
+        <v>0.3</v>
       </c>
       <c r="L47" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>136</v>
       </c>
       <c r="D48" t="n">
-        <v>6.24</v>
+        <v>5.66</v>
       </c>
       <c r="E48" t="n">
-        <v>4.24</v>
+        <v>3.03</v>
       </c>
       <c r="F48" t="n">
-        <v>2.09</v>
+        <v>0.95</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.95</v>
+        <v>3.33</v>
       </c>
       <c r="K48" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="L48" t="n">
-        <v>0.56</v>
+        <v>0.14</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -4217,13 +4217,13 @@
         <v>137</v>
       </c>
       <c r="D49" t="n">
-        <v>5.38</v>
+        <v>4.72</v>
       </c>
       <c r="E49" t="n">
-        <v>3.18</v>
+        <v>1.84</v>
       </c>
       <c r="F49" t="n">
-        <v>0.98</v>
+        <v>0.15</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -4235,13 +4235,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.69</v>
+        <v>4.09</v>
       </c>
       <c r="K49" t="n">
-        <v>2.63</v>
+        <v>1.47</v>
       </c>
       <c r="L49" t="n">
-        <v>0.72</v>
+        <v>0.07</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4264,31 +4264,31 @@
         <v>138</v>
       </c>
       <c r="D50" t="n">
-        <v>4.44</v>
+        <v>3.85</v>
       </c>
       <c r="E50" t="n">
-        <v>2.26</v>
+        <v>1.05</v>
       </c>
       <c r="F50" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.38</v>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.12</v>
-      </c>
       <c r="L50" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4311,13 +4311,13 @@
         <v>139</v>
       </c>
       <c r="D51" t="n">
-        <v>3.51</v>
+        <v>2.89</v>
       </c>
       <c r="E51" t="n">
-        <v>1.29</v>
+        <v>0.47</v>
       </c>
       <c r="F51" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -4329,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.85</v>
+        <v>3.22</v>
       </c>
       <c r="K51" t="n">
-        <v>1.65</v>
+        <v>0.73</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4358,13 +4358,13 @@
         <v>140</v>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>5.36</v>
       </c>
       <c r="E52" t="n">
-        <v>3.63</v>
+        <v>2.4</v>
       </c>
       <c r="F52" t="n">
-        <v>1.27</v>
+        <v>0.33</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -4376,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>4.47</v>
+        <v>3.81</v>
       </c>
       <c r="K52" t="n">
-        <v>2.09</v>
+        <v>0.94</v>
       </c>
       <c r="L52" t="n">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4405,13 +4405,13 @@
         <v>141</v>
       </c>
       <c r="D53" t="n">
-        <v>5.23</v>
+        <v>4.4</v>
       </c>
       <c r="E53" t="n">
-        <v>3.01</v>
+        <v>1.37</v>
       </c>
       <c r="F53" t="n">
-        <v>0.84</v>
+        <v>0.13</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -4423,16 +4423,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>4.11</v>
+        <v>3.5</v>
       </c>
       <c r="K53" t="n">
-        <v>2.14</v>
+        <v>1.09</v>
       </c>
       <c r="L53" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="M53" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4452,16 +4452,16 @@
         <v>142</v>
       </c>
       <c r="D54" t="n">
-        <v>4.57</v>
+        <v>4.01</v>
       </c>
       <c r="E54" t="n">
-        <v>2.64</v>
+        <v>1.51</v>
       </c>
       <c r="F54" t="n">
-        <v>0.83</v>
+        <v>0.19</v>
       </c>
       <c r="G54" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4470,16 +4470,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.61</v>
+        <v>3.09</v>
       </c>
       <c r="K54" t="n">
-        <v>1.83</v>
+        <v>1.02</v>
       </c>
       <c r="L54" t="n">
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="M54" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -4517,16 +4517,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.56</v>
+        <v>0.96</v>
       </c>
       <c r="K55" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="L55" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -4546,13 +4546,13 @@
         <v>144</v>
       </c>
       <c r="D56" t="n">
-        <v>4.24</v>
+        <v>3.7</v>
       </c>
       <c r="E56" t="n">
-        <v>2.61</v>
+        <v>1.74</v>
       </c>
       <c r="F56" t="n">
-        <v>1.34</v>
+        <v>0.93</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -4564,16 +4564,16 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4.13</v>
+        <v>3.59</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="L56" t="n">
-        <v>1.03</v>
+        <v>0.56</v>
       </c>
       <c r="M56" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -4640,13 +4640,13 @@
         <v>146</v>
       </c>
       <c r="D58" t="n">
-        <v>3.07</v>
+        <v>2.55</v>
       </c>
       <c r="E58" t="n">
-        <v>1.56</v>
+        <v>0.75</v>
       </c>
       <c r="F58" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -4658,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.77</v>
+        <v>1.11</v>
       </c>
       <c r="K58" t="n">
-        <v>0.38</v>
+        <v>0.07</v>
       </c>
       <c r="L58" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -4705,16 +4705,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="K59" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4734,10 +4734,10 @@
         <v>148</v>
       </c>
       <c r="D60" t="n">
-        <v>3.17</v>
+        <v>2.48</v>
       </c>
       <c r="E60" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -4752,16 +4752,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.25</v>
+        <v>1.51</v>
       </c>
       <c r="K60" t="n">
-        <v>0.61</v>
+        <v>0.11</v>
       </c>
       <c r="L60" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M60" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4781,13 +4781,13 @@
         <v>149</v>
       </c>
       <c r="D61" t="n">
-        <v>6.04</v>
+        <v>5.43</v>
       </c>
       <c r="E61" t="n">
-        <v>3.64</v>
+        <v>2.35</v>
       </c>
       <c r="F61" t="n">
-        <v>1.04</v>
+        <v>0.18</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -4799,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>5.06</v>
+        <v>4.46</v>
       </c>
       <c r="K61" t="n">
-        <v>2.83</v>
+        <v>1.82</v>
       </c>
       <c r="L61" t="n">
-        <v>0.91</v>
+        <v>0.24</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -4828,10 +4828,10 @@
         <v>150</v>
       </c>
       <c r="D62" t="n">
-        <v>6.67</v>
+        <v>5.82</v>
       </c>
       <c r="E62" t="n">
-        <v>2.88</v>
+        <v>1.07</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -4846,13 +4846,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.76</v>
+        <v>4.18</v>
       </c>
       <c r="K62" t="n">
-        <v>2.34</v>
+        <v>1.27</v>
       </c>
       <c r="L62" t="n">
-        <v>0.47</v>
+        <v>0.06</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4875,13 +4875,13 @@
         <v>151</v>
       </c>
       <c r="D63" t="n">
-        <v>4.51</v>
+        <v>4.05</v>
       </c>
       <c r="E63" t="n">
-        <v>2.33</v>
+        <v>1.42</v>
       </c>
       <c r="F63" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -4893,16 +4893,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.9</v>
+        <v>2.36</v>
       </c>
       <c r="K63" t="n">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="L63" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="M63" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4922,13 +4922,13 @@
         <v>152</v>
       </c>
       <c r="D64" t="n">
-        <v>4.76</v>
+        <v>4.2</v>
       </c>
       <c r="E64" t="n">
-        <v>2.85</v>
+        <v>1.88</v>
       </c>
       <c r="F64" t="n">
-        <v>1.4</v>
+        <v>0.76</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -4940,16 +4940,16 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.34</v>
+        <v>1.58</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8</v>
+        <v>0.39</v>
       </c>
       <c r="L64" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="M64" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4969,16 +4969,16 @@
         <v>153</v>
       </c>
       <c r="D65" t="n">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="E65" t="n">
-        <v>1.07</v>
+        <v>0.51</v>
       </c>
       <c r="F65" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4987,16 +4987,16 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.05</v>
+        <v>0.43</v>
       </c>
       <c r="K65" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -5063,10 +5063,10 @@
         <v>155</v>
       </c>
       <c r="D67" t="n">
-        <v>5.08</v>
+        <v>3.28</v>
       </c>
       <c r="E67" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -5081,16 +5081,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="K67" t="n">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -5128,16 +5128,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.17</v>
+        <v>1.31</v>
       </c>
       <c r="K68" t="n">
-        <v>0.59</v>
+        <v>0.1</v>
       </c>
       <c r="L68" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="M68" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -5157,13 +5157,13 @@
         <v>157</v>
       </c>
       <c r="D69" t="n">
-        <v>7.29</v>
+        <v>6.93</v>
       </c>
       <c r="E69" t="n">
-        <v>5.99</v>
+        <v>5.21</v>
       </c>
       <c r="F69" t="n">
-        <v>4.46</v>
+        <v>3.21</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -5175,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>4.33</v>
+        <v>3.85</v>
       </c>
       <c r="K69" t="n">
-        <v>2.56</v>
+        <v>1.72</v>
       </c>
       <c r="L69" t="n">
-        <v>1.1</v>
+        <v>0.58</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -5204,7 +5204,7 @@
         <v>158</v>
       </c>
       <c r="D70" t="n">
-        <v>1.62</v>
+        <v>0.87</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -5222,16 +5222,16 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="K70" t="n">
-        <v>0.36</v>
+        <v>0.07</v>
       </c>
       <c r="L70" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -5251,10 +5251,10 @@
         <v>159</v>
       </c>
       <c r="D71" t="n">
-        <v>2.96</v>
+        <v>2.4</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0.19</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -5269,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="K71" t="n">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="L71" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -5298,13 +5298,13 @@
         <v>160</v>
       </c>
       <c r="D72" t="n">
-        <v>7.32</v>
+        <v>6.73</v>
       </c>
       <c r="E72" t="n">
-        <v>5.09</v>
+        <v>3.82</v>
       </c>
       <c r="F72" t="n">
-        <v>2.49</v>
+        <v>0.98</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5316,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.68</v>
+        <v>3.13</v>
       </c>
       <c r="K72" t="n">
-        <v>1.89</v>
+        <v>1.21</v>
       </c>
       <c r="L72" t="n">
-        <v>0.63</v>
+        <v>0.15</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -5345,13 +5345,13 @@
         <v>162</v>
       </c>
       <c r="D73" t="n">
-        <v>4.36</v>
+        <v>3.91</v>
       </c>
       <c r="E73" t="n">
-        <v>3.26</v>
+        <v>2.31</v>
       </c>
       <c r="F73" t="n">
-        <v>1.99</v>
+        <v>0.47</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -5363,16 +5363,16 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="K73" t="n">
-        <v>0.47</v>
+        <v>0.09</v>
       </c>
       <c r="L73" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         <v>163</v>
       </c>
       <c r="D74" t="n">
-        <v>6.88</v>
+        <v>6.32</v>
       </c>
       <c r="E74" t="n">
-        <v>4.78</v>
+        <v>3.59</v>
       </c>
       <c r="F74" t="n">
-        <v>2.33</v>
+        <v>0.4</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -5410,16 +5410,16 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.67</v>
+        <v>1.88</v>
       </c>
       <c r="K74" t="n">
-        <v>0.83</v>
+        <v>0.26</v>
       </c>
       <c r="L74" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -5457,16 +5457,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.94</v>
+        <v>2.06</v>
       </c>
       <c r="K75" t="n">
-        <v>0.97</v>
+        <v>0.28</v>
       </c>
       <c r="L75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -5486,13 +5486,13 @@
         <v>165</v>
       </c>
       <c r="D76" t="n">
-        <v>7.84</v>
+        <v>7.35</v>
       </c>
       <c r="E76" t="n">
-        <v>6.09</v>
+        <v>5.02</v>
       </c>
       <c r="F76" t="n">
-        <v>4.04</v>
+        <v>2.34</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -5504,16 +5504,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K76" t="n">
-        <v>1.79</v>
+        <v>0.99</v>
       </c>
       <c r="L76" t="n">
-        <v>0.57</v>
+        <v>0.15</v>
       </c>
       <c r="M76" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5533,13 +5533,13 @@
         <v>166</v>
       </c>
       <c r="D77" t="n">
-        <v>6.36</v>
+        <v>5.74</v>
       </c>
       <c r="E77" t="n">
-        <v>4.15</v>
+        <v>2.83</v>
       </c>
       <c r="F77" t="n">
-        <v>1.61</v>
+        <v>0.51</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -5551,16 +5551,16 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4.97</v>
+        <v>4.25</v>
       </c>
       <c r="K77" t="n">
-        <v>2.68</v>
+        <v>1.45</v>
       </c>
       <c r="L77" t="n">
-        <v>0.69</v>
+        <v>0.08</v>
       </c>
       <c r="M77" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -5580,13 +5580,13 @@
         <v>167</v>
       </c>
       <c r="D78" t="n">
-        <v>8.71</v>
+        <v>8.2</v>
       </c>
       <c r="E78" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="F78" t="n">
-        <v>4.57</v>
+        <v>2.78</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -5598,16 +5598,16 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>7.3</v>
+        <v>6.75</v>
       </c>
       <c r="K78" t="n">
-        <v>5.36</v>
+        <v>4.19</v>
       </c>
       <c r="L78" t="n">
-        <v>3.12</v>
+        <v>1.45</v>
       </c>
       <c r="M78" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -5627,10 +5627,10 @@
         <v>168</v>
       </c>
       <c r="D79" t="n">
-        <v>2.09</v>
+        <v>1.39</v>
       </c>
       <c r="E79" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -5645,16 +5645,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.04</v>
+        <v>0.51</v>
       </c>
       <c r="K79" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -5674,13 +5674,13 @@
         <v>169</v>
       </c>
       <c r="D80" t="n">
-        <v>6.08</v>
+        <v>5.4</v>
       </c>
       <c r="E80" t="n">
-        <v>4.12</v>
+        <v>2.74</v>
       </c>
       <c r="F80" t="n">
-        <v>1.94</v>
+        <v>0.09</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -5692,16 +5692,16 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>3.13</v>
+        <v>2.33</v>
       </c>
       <c r="K80" t="n">
-        <v>1.27</v>
+        <v>0.45</v>
       </c>
       <c r="L80" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -5721,13 +5721,13 @@
         <v>170</v>
       </c>
       <c r="D81" t="n">
-        <v>7.7</v>
+        <v>7.23</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>4.03</v>
+        <v>2.46</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -5739,16 +5739,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>4.76</v>
+        <v>4.1</v>
       </c>
       <c r="K81" t="n">
-        <v>2.81</v>
+        <v>1.89</v>
       </c>
       <c r="L81" t="n">
-        <v>1.22</v>
+        <v>0.44</v>
       </c>
       <c r="M81" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5768,13 +5768,13 @@
         <v>171</v>
       </c>
       <c r="D82" t="n">
-        <v>5.64</v>
+        <v>5.07</v>
       </c>
       <c r="E82" t="n">
-        <v>3.5</v>
+        <v>2.26</v>
       </c>
       <c r="F82" t="n">
-        <v>1.06</v>
+        <v>0.1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -5786,16 +5786,16 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.62</v>
+        <v>1.79</v>
       </c>
       <c r="K82" t="n">
-        <v>0.82</v>
+        <v>0.36</v>
       </c>
       <c r="L82" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="M82" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -5833,16 +5833,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.34</v>
+        <v>0.73</v>
       </c>
       <c r="K83" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5880,16 +5880,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="K84" t="n">
-        <v>0.66</v>
+        <v>0.27</v>
       </c>
       <c r="L84" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="M84" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5927,16 +5927,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>3.31</v>
+        <v>2.75</v>
       </c>
       <c r="K85" t="n">
-        <v>1.81</v>
+        <v>0.8</v>
       </c>
       <c r="L85" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="K86" t="n">
-        <v>1.61</v>
+        <v>1.02</v>
       </c>
       <c r="L86" t="n">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -6021,16 +6021,16 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.74</v>
+        <v>2.31</v>
       </c>
       <c r="K87" t="n">
-        <v>1.6</v>
+        <v>0.99</v>
       </c>
       <c r="L87" t="n">
-        <v>0.72</v>
+        <v>0.27</v>
       </c>
       <c r="M87" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -6068,16 +6068,16 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3.04</v>
+        <v>2.49</v>
       </c>
       <c r="K88" t="n">
-        <v>1.73</v>
+        <v>0.91</v>
       </c>
       <c r="L88" t="n">
-        <v>0.65</v>
+        <v>0.16</v>
       </c>
       <c r="M88" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -6115,16 +6115,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="K89" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="L89" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -6191,10 +6191,10 @@
         <v>181</v>
       </c>
       <c r="D91" t="n">
-        <v>2.24</v>
+        <v>1.65</v>
       </c>
       <c r="E91" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="K91" t="n">
-        <v>0.93</v>
+        <v>0.39</v>
       </c>
       <c r="L91" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="M91" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6256,16 +6256,16 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="K92" t="n">
-        <v>0.99</v>
+        <v>0.25</v>
       </c>
       <c r="L92" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6303,16 +6303,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.51</v>
+        <v>0.57</v>
       </c>
       <c r="K93" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -6350,16 +6350,16 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.26</v>
+        <v>0.73</v>
       </c>
       <c r="K94" t="n">
-        <v>0.28</v>
+        <v>0.05</v>
       </c>
       <c r="L94" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -6397,16 +6397,16 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="K95" t="n">
-        <v>0.87</v>
+        <v>0.34</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="M95" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -6426,13 +6426,13 @@
         <v>187</v>
       </c>
       <c r="D96" t="n">
-        <v>9.22</v>
+        <v>8.73</v>
       </c>
       <c r="E96" t="n">
-        <v>7.5</v>
+        <v>6.44</v>
       </c>
       <c r="F96" t="n">
-        <v>5.49</v>
+        <v>3.86</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -6444,13 +6444,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>7.82</v>
+        <v>7.33</v>
       </c>
       <c r="K96" t="n">
-        <v>6.24</v>
+        <v>5.18</v>
       </c>
       <c r="L96" t="n">
-        <v>4.43</v>
+        <v>2.92</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>188</v>
       </c>
       <c r="D97" t="n">
-        <v>6.83</v>
+        <v>6.15</v>
       </c>
       <c r="E97" t="n">
-        <v>5.1</v>
+        <v>3.62</v>
       </c>
       <c r="F97" t="n">
-        <v>3.08</v>
+        <v>1.37</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -6491,13 +6491,13 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>6.61</v>
+        <v>5.98</v>
       </c>
       <c r="K97" t="n">
-        <v>4.86</v>
+        <v>3.53</v>
       </c>
       <c r="L97" t="n">
-        <v>2.89</v>
+        <v>1.37</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -6520,13 +6520,13 @@
         <v>189</v>
       </c>
       <c r="D98" t="n">
-        <v>5.77</v>
+        <v>5.24</v>
       </c>
       <c r="E98" t="n">
-        <v>3.92</v>
+        <v>2.78</v>
       </c>
       <c r="F98" t="n">
-        <v>1.83</v>
+        <v>0.81</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -6538,13 +6538,13 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4.45</v>
+        <v>3.89</v>
       </c>
       <c r="K98" t="n">
-        <v>2.53</v>
+        <v>1.35</v>
       </c>
       <c r="L98" t="n">
-        <v>0.57</v>
+        <v>0.04</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -6567,10 +6567,10 @@
         <v>190</v>
       </c>
       <c r="D99" t="n">
-        <v>3.77</v>
+        <v>2.91</v>
       </c>
       <c r="E99" t="n">
-        <v>1.58</v>
+        <v>0.6</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -6585,16 +6585,16 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.24</v>
+        <v>2.45</v>
       </c>
       <c r="K99" t="n">
-        <v>1.18</v>
+        <v>0.38</v>
       </c>
       <c r="L99" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M99" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -6614,13 +6614,13 @@
         <v>191</v>
       </c>
       <c r="D100" t="n">
-        <v>4.91</v>
+        <v>4.38</v>
       </c>
       <c r="E100" t="n">
-        <v>3.04</v>
+        <v>1.89</v>
       </c>
       <c r="F100" t="n">
-        <v>0.94</v>
+        <v>0.08</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -6632,16 +6632,16 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>3.35</v>
+        <v>2.51</v>
       </c>
       <c r="K100" t="n">
-        <v>1.32</v>
+        <v>0.54</v>
       </c>
       <c r="L100" t="n">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="M100" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -6661,13 +6661,13 @@
         <v>192</v>
       </c>
       <c r="D101" t="n">
-        <v>4.33</v>
+        <v>3.74</v>
       </c>
       <c r="E101" t="n">
-        <v>2.28</v>
+        <v>1.25</v>
       </c>
       <c r="F101" t="n">
-        <v>0.56</v>
+        <v>0.11</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -6679,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>3.13</v>
+        <v>2.58</v>
       </c>
       <c r="K101" t="n">
-        <v>1.16</v>
+        <v>0.44</v>
       </c>
       <c r="L101" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -6708,31 +6708,31 @@
         <v>193</v>
       </c>
       <c r="D102" t="n">
-        <v>5.22</v>
+        <v>4.66</v>
       </c>
       <c r="E102" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="F102" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K102" t="n">
         <v>1.39</v>
       </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2.62</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6773,16 +6773,16 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.58</v>
+        <v>1.09</v>
       </c>
       <c r="K103" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -6802,13 +6802,13 @@
         <v>195</v>
       </c>
       <c r="D104" t="n">
-        <v>6.6</v>
+        <v>6.01</v>
       </c>
       <c r="E104" t="n">
-        <v>4.73</v>
+        <v>3.47</v>
       </c>
       <c r="F104" t="n">
-        <v>2.61</v>
+        <v>1.19</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -6820,13 +6820,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>5.44</v>
+        <v>4.83</v>
       </c>
       <c r="K104" t="n">
-        <v>3.45</v>
+        <v>2.15</v>
       </c>
       <c r="L104" t="n">
-        <v>1.31</v>
+        <v>0.28</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -6849,13 +6849,13 @@
         <v>196</v>
       </c>
       <c r="D105" t="n">
-        <v>4.52</v>
+        <v>3.86</v>
       </c>
       <c r="E105" t="n">
-        <v>2.82</v>
+        <v>1.51</v>
       </c>
       <c r="F105" t="n">
-        <v>1.08</v>
+        <v>0.3</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -6867,13 +6867,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>4.58</v>
+        <v>3.93</v>
       </c>
       <c r="K105" t="n">
-        <v>2.9</v>
+        <v>1.54</v>
       </c>
       <c r="L105" t="n">
-        <v>1.11</v>
+        <v>0.27</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -6896,13 +6896,13 @@
         <v>197</v>
       </c>
       <c r="D106" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="E106" t="n">
-        <v>4.11</v>
+        <v>2.81</v>
       </c>
       <c r="F106" t="n">
-        <v>2.09</v>
+        <v>0.74</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -6914,13 +6914,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>4.85</v>
+        <v>4.22</v>
       </c>
       <c r="K106" t="n">
-        <v>2.79</v>
+        <v>1.59</v>
       </c>
       <c r="L106" t="n">
-        <v>1.03</v>
+        <v>0.33</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -6943,13 +6943,13 @@
         <v>198</v>
       </c>
       <c r="D107" t="n">
-        <v>4.66</v>
+        <v>4.05</v>
       </c>
       <c r="E107" t="n">
-        <v>2.72</v>
+        <v>1.48</v>
       </c>
       <c r="F107" t="n">
-        <v>0.71</v>
+        <v>0.07</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -6961,13 +6961,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>3.89</v>
+        <v>3.36</v>
       </c>
       <c r="K107" t="n">
-        <v>1.97</v>
+        <v>0.99</v>
       </c>
       <c r="L107" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -6990,13 +6990,13 @@
         <v>199</v>
       </c>
       <c r="D108" t="n">
-        <v>5.85</v>
+        <v>5.32</v>
       </c>
       <c r="E108" t="n">
-        <v>4.04</v>
+        <v>3.03</v>
       </c>
       <c r="F108" t="n">
-        <v>2.23</v>
+        <v>1.14</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -7008,16 +7008,16 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="K108" t="n">
-        <v>3.35</v>
+        <v>2.35</v>
       </c>
       <c r="L108" t="n">
-        <v>1.51</v>
+        <v>0.6</v>
       </c>
       <c r="M108" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -7037,13 +7037,13 @@
         <v>200</v>
       </c>
       <c r="D109" t="n">
-        <v>5.25</v>
+        <v>4.67</v>
       </c>
       <c r="E109" t="n">
-        <v>3.23</v>
+        <v>2.01</v>
       </c>
       <c r="F109" t="n">
-        <v>1.05</v>
+        <v>0.21</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -7055,13 +7055,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>4.76</v>
+        <v>4.18</v>
       </c>
       <c r="K109" t="n">
-        <v>2.75</v>
+        <v>1.54</v>
       </c>
       <c r="L109" t="n">
-        <v>0.67</v>
+        <v>0.06</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -7084,13 +7084,13 @@
         <v>201</v>
       </c>
       <c r="D110" t="n">
-        <v>5.37</v>
+        <v>4.75</v>
       </c>
       <c r="E110" t="n">
-        <v>3.51</v>
+        <v>2.29</v>
       </c>
       <c r="F110" t="n">
-        <v>1.69</v>
+        <v>0.76</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -7102,16 +7102,16 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>3.01</v>
+        <v>2.3</v>
       </c>
       <c r="K110" t="n">
-        <v>1.3</v>
+        <v>0.56</v>
       </c>
       <c r="L110" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="M110" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -7131,13 +7131,13 @@
         <v>202</v>
       </c>
       <c r="D111" t="n">
-        <v>3.8</v>
+        <v>3.16</v>
       </c>
       <c r="E111" t="n">
-        <v>2.29</v>
+        <v>0.92</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -7149,16 +7149,16 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.79</v>
+        <v>1.99</v>
       </c>
       <c r="K111" t="n">
-        <v>1.03</v>
+        <v>0.26</v>
       </c>
       <c r="L111" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="M111" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -7178,13 +7178,13 @@
         <v>203</v>
       </c>
       <c r="D112" t="n">
-        <v>6.87</v>
+        <v>6.24</v>
       </c>
       <c r="E112" t="n">
-        <v>5.2</v>
+        <v>3.83</v>
       </c>
       <c r="F112" t="n">
-        <v>3.24</v>
+        <v>1.38</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -7196,13 +7196,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>4.69</v>
+        <v>3.93</v>
       </c>
       <c r="K112" t="n">
-        <v>2.88</v>
+        <v>1.76</v>
       </c>
       <c r="L112" t="n">
-        <v>1.49</v>
+        <v>0.62</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>204</v>
       </c>
       <c r="D113" t="n">
-        <v>4.32</v>
+        <v>3.73</v>
       </c>
       <c r="E113" t="n">
-        <v>2.44</v>
+        <v>1.38</v>
       </c>
       <c r="F113" t="n">
-        <v>0.81</v>
+        <v>0.23</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -7243,16 +7243,16 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>4.04</v>
+        <v>3.43</v>
       </c>
       <c r="K113" t="n">
-        <v>2.17</v>
+        <v>1.1</v>
       </c>
       <c r="L113" t="n">
-        <v>0.56</v>
+        <v>0.05</v>
       </c>
       <c r="M113" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -7290,16 +7290,16 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.66</v>
+        <v>0.73</v>
       </c>
       <c r="K114" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="L114" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -7337,16 +7337,16 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2.09</v>
+        <v>1.21</v>
       </c>
       <c r="K115" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
       <c r="L115" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>207</v>
       </c>
       <c r="D116" t="n">
-        <v>3.97</v>
+        <v>3.31</v>
       </c>
       <c r="E116" t="n">
-        <v>2.08</v>
+        <v>1.44</v>
       </c>
       <c r="F116" t="n">
-        <v>1.01</v>
+        <v>0.49</v>
       </c>
       <c r="G116" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7384,16 +7384,16 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>3.41</v>
+        <v>2.69</v>
       </c>
       <c r="K116" t="n">
-        <v>1.76</v>
+        <v>1.35</v>
       </c>
       <c r="L116" t="n">
-        <v>1.06</v>
+        <v>0.68</v>
       </c>
       <c r="M116" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
@@ -7413,13 +7413,13 @@
         <v>208</v>
       </c>
       <c r="D117" t="n">
-        <v>4.46</v>
+        <v>3.84</v>
       </c>
       <c r="E117" t="n">
-        <v>2.28</v>
+        <v>1.26</v>
       </c>
       <c r="F117" t="n">
-        <v>0.54</v>
+        <v>0.06</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -7431,16 +7431,16 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>3.07</v>
+        <v>2.32</v>
       </c>
       <c r="K117" t="n">
-        <v>1.3</v>
+        <v>0.52</v>
       </c>
       <c r="L117" t="n">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="M117" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -7460,13 +7460,13 @@
         <v>209</v>
       </c>
       <c r="D118" t="n">
-        <v>6.66</v>
+        <v>6.11</v>
       </c>
       <c r="E118" t="n">
-        <v>4.6</v>
+        <v>3.42</v>
       </c>
       <c r="F118" t="n">
-        <v>2.3</v>
+        <v>1.07</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -7478,13 +7478,13 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>6.53</v>
+        <v>6.03</v>
       </c>
       <c r="K118" t="n">
-        <v>4.73</v>
+        <v>3.71</v>
       </c>
       <c r="L118" t="n">
-        <v>2.81</v>
+        <v>1.63</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -7525,16 +7525,16 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.99</v>
+        <v>0.88</v>
       </c>
       <c r="K119" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -7554,13 +7554,13 @@
         <v>211</v>
       </c>
       <c r="D120" t="n">
-        <v>7.52</v>
+        <v>7.07</v>
       </c>
       <c r="E120" t="n">
-        <v>5.94</v>
+        <v>4.97</v>
       </c>
       <c r="F120" t="n">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -7572,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>6.09</v>
+        <v>5.58</v>
       </c>
       <c r="K120" t="n">
-        <v>4.45</v>
+        <v>3.44</v>
       </c>
       <c r="L120" t="n">
-        <v>2.77</v>
+        <v>1.6</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
@@ -7601,13 +7601,13 @@
         <v>212</v>
       </c>
       <c r="D121" t="n">
-        <v>4.04</v>
+        <v>3.53</v>
       </c>
       <c r="E121" t="n">
-        <v>2.27</v>
+        <v>1.16</v>
       </c>
       <c r="F121" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -7619,13 +7619,13 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.6</v>
+        <v>2.04</v>
       </c>
       <c r="K121" t="n">
-        <v>0.86</v>
+        <v>0.14</v>
       </c>
       <c r="L121" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -7648,13 +7648,13 @@
         <v>213</v>
       </c>
       <c r="D122" t="n">
-        <v>4.87</v>
+        <v>4.38</v>
       </c>
       <c r="E122" t="n">
-        <v>3.05</v>
+        <v>1.99</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -7666,13 +7666,13 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>3.86</v>
+        <v>3.3</v>
       </c>
       <c r="K122" t="n">
-        <v>1.93</v>
+        <v>0.87</v>
       </c>
       <c r="L122" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
@@ -7695,10 +7695,10 @@
         <v>214</v>
       </c>
       <c r="D123" t="n">
-        <v>2.35</v>
+        <v>1.51</v>
       </c>
       <c r="E123" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -7713,16 +7713,16 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>2.38</v>
+        <v>1.49</v>
       </c>
       <c r="K123" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -7742,31 +7742,31 @@
         <v>215</v>
       </c>
       <c r="D124" t="n">
-        <v>7.96</v>
+        <v>7.46</v>
       </c>
       <c r="E124" t="n">
-        <v>6.25</v>
+        <v>5.18</v>
       </c>
       <c r="F124" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
         <v>4.25</v>
       </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>4.8</v>
-      </c>
       <c r="K124" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L124" t="n">
-        <v>1.12</v>
+        <v>0.38</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -7807,16 +7807,16 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.82</v>
+        <v>1.95</v>
       </c>
       <c r="K125" t="n">
-        <v>0.91</v>
+        <v>0.21</v>
       </c>
       <c r="L125" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -7836,13 +7836,13 @@
         <v>217</v>
       </c>
       <c r="D126" t="n">
-        <v>3.79</v>
+        <v>3.28</v>
       </c>
       <c r="E126" t="n">
-        <v>1.91</v>
+        <v>0.82</v>
       </c>
       <c r="F126" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -7854,13 +7854,13 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>3.74</v>
+        <v>3.14</v>
       </c>
       <c r="K126" t="n">
-        <v>1.59</v>
+        <v>0.58</v>
       </c>
       <c r="L126" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -7883,13 +7883,13 @@
         <v>218</v>
       </c>
       <c r="D127" t="n">
-        <v>5.32</v>
+        <v>4.69</v>
       </c>
       <c r="E127" t="n">
-        <v>3.49</v>
+        <v>2.12</v>
       </c>
       <c r="F127" t="n">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -7901,13 +7901,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>4.49</v>
+        <v>3.86</v>
       </c>
       <c r="K127" t="n">
-        <v>2.36</v>
+        <v>1.16</v>
       </c>
       <c r="L127" t="n">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -7930,13 +7930,13 @@
         <v>219</v>
       </c>
       <c r="D128" t="n">
-        <v>4.67</v>
+        <v>3.99</v>
       </c>
       <c r="E128" t="n">
-        <v>2.54</v>
+        <v>1.76</v>
       </c>
       <c r="F128" t="n">
-        <v>1.16</v>
+        <v>0.39</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -7948,16 +7948,16 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.4</v>
+        <v>1.52</v>
       </c>
       <c r="K128" t="n">
-        <v>0.39</v>
+        <v>0.07</v>
       </c>
       <c r="L128" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -8183,19 +8183,19 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>5.59</v>
+        <v>1.26</v>
       </c>
       <c r="K133" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.71</v>
+        <v>0.82</v>
       </c>
       <c r="K134" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.18</v>
+        <v>0.42</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
@@ -8559,16 +8559,16 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>3.02</v>
+        <v>1.66</v>
       </c>
       <c r="K141" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.57</v>
+        <v>0.61</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -8653,16 +8653,16 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="K143" t="n">
-        <v>0.71</v>
+        <v>0.28</v>
       </c>
       <c r="L143" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="M143" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -8682,10 +8682,10 @@
         <v>236</v>
       </c>
       <c r="D144" t="n">
-        <v>3.34</v>
+        <v>2.04</v>
       </c>
       <c r="E144" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -8700,16 +8700,16 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.93</v>
+        <v>1.31</v>
       </c>
       <c r="K144" t="n">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -8729,13 +8729,13 @@
         <v>237</v>
       </c>
       <c r="D145" t="n">
-        <v>4.1</v>
+        <v>3.18</v>
       </c>
       <c r="E145" t="n">
-        <v>1.91</v>
+        <v>0.91</v>
       </c>
       <c r="F145" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -8747,16 +8747,16 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2.39</v>
+        <v>1.76</v>
       </c>
       <c r="K145" t="n">
-        <v>0.81</v>
+        <v>0.31</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.95</v>
+        <v>0.59</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.06</v>
+        <v>1.03</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>0.94</v>
+        <v>0.08</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -9170,16 +9170,16 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>1.98</v>
+        <v>0.37</v>
       </c>
       <c r="K154" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N154" t="n">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -9311,16 +9311,16 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>2.58</v>
+        <v>1.17</v>
       </c>
       <c r="K157" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1.25</v>
+        <v>0.58</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.19</v>
+        <v>0.49</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>2.01</v>
+        <v>1.52</v>
       </c>
       <c r="K176" t="n">
-        <v>0.56</v>
+        <v>0.15</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M176" t="n">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.86</v>
+        <v>1.1</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -10374,16 +10374,16 @@
         <v>275</v>
       </c>
       <c r="D180" t="n">
-        <v>3.16</v>
+        <v>2.24</v>
       </c>
       <c r="E180" t="n">
-        <v>1.38</v>
+        <v>0.26</v>
       </c>
       <c r="F180" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10392,16 +10392,16 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>2.56</v>
+        <v>1.57</v>
       </c>
       <c r="K180" t="n">
-        <v>0.76</v>
+        <v>0.07</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="N180" t="n">
         <v>0</v>
@@ -10421,13 +10421,13 @@
         <v>276</v>
       </c>
       <c r="D181" t="n">
-        <v>4.49</v>
+        <v>3.93</v>
       </c>
       <c r="E181" t="n">
-        <v>3.18</v>
+        <v>2.11</v>
       </c>
       <c r="F181" t="n">
-        <v>1.83</v>
+        <v>0.89</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>2.82</v>
+        <v>2.07</v>
       </c>
       <c r="K181" t="n">
-        <v>1.21</v>
+        <v>0.32</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="M181" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="N181" t="n">
         <v>0</v>
@@ -10468,13 +10468,13 @@
         <v>277</v>
       </c>
       <c r="D182" t="n">
-        <v>3.37</v>
+        <v>2.84</v>
       </c>
       <c r="E182" t="n">
-        <v>2.09</v>
+        <v>1.1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.81</v>
+        <v>0.26</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -10486,13 +10486,13 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>3.22</v>
+        <v>2.63</v>
       </c>
       <c r="K182" t="n">
-        <v>1.78</v>
+        <v>0.97</v>
       </c>
       <c r="L182" t="n">
-        <v>0.68</v>
+        <v>0.2</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
@@ -10515,34 +10515,34 @@
         <v>278</v>
       </c>
       <c r="D183" t="n">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="E183" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.05</v>
       </c>
-      <c r="G183" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.47</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N183" t="n">
         <v>0</v>
@@ -10580,10 +10580,10 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>1.3</v>
+        <v>0.83</v>
       </c>
       <c r="K184" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="L184" t="n">
         <v>0</v>
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N186" t="n">
         <v>0</v>
@@ -10703,16 +10703,16 @@
         <v>282</v>
       </c>
       <c r="D187" t="n">
-        <v>2.64</v>
+        <v>1.88</v>
       </c>
       <c r="E187" t="n">
-        <v>1.09</v>
+        <v>0.37</v>
       </c>
       <c r="F187" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="G187" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -10721,16 +10721,16 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>2.89</v>
+        <v>2.23</v>
       </c>
       <c r="K187" t="n">
-        <v>1.41</v>
+        <v>0.86</v>
       </c>
       <c r="L187" t="n">
-        <v>0.64</v>
+        <v>0.27</v>
       </c>
       <c r="M187" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N187" t="n">
         <v>0</v>
@@ -10768,10 +10768,10 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0.99</v>
+        <v>0.54</v>
       </c>
       <c r="K188" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="L188" t="n">
         <v>0</v>
@@ -10815,10 +10815,10 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
       <c r="K189" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>0</v>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>0.58</v>
+        <v>0.08</v>
       </c>
       <c r="K192" t="n">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>0.57</v>
+        <v>0.23</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -12319,16 +12319,16 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>1.42</v>
+        <v>0.31</v>
       </c>
       <c r="K221" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N221" t="n">
         <v>0</v>
@@ -12348,13 +12348,13 @@
         <v>321</v>
       </c>
       <c r="D222" t="n">
-        <v>3.19</v>
+        <v>2.4</v>
       </c>
       <c r="E222" t="n">
-        <v>1.56</v>
+        <v>0.35</v>
       </c>
       <c r="F222" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -12366,16 +12366,16 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>2.85</v>
+        <v>2.13</v>
       </c>
       <c r="K222" t="n">
-        <v>1.28</v>
+        <v>0.43</v>
       </c>
       <c r="L222" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="M222" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N222" t="n">
         <v>0</v>
@@ -12413,16 +12413,16 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>1.68</v>
+        <v>0.59</v>
       </c>
       <c r="K223" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>0</v>
       </c>
       <c r="M223" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N223" t="n">
         <v>0</v>
@@ -12460,16 +12460,16 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>1.17</v>
+        <v>0.28</v>
       </c>
       <c r="K224" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N224" t="n">
         <v>0</v>
@@ -12507,16 +12507,16 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>7.96</v>
+        <v>5.22</v>
       </c>
       <c r="K225" t="n">
-        <v>5.08</v>
+        <v>0.69</v>
       </c>
       <c r="L225" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N225" t="n">
         <v>0</v>
@@ -12554,19 +12554,19 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>6.23</v>
+        <v>1.24</v>
       </c>
       <c r="K226" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>0</v>
       </c>
       <c r="M226" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O226" t="n">
         <v>0</v>
@@ -12601,16 +12601,16 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>4.38</v>
+        <v>1.03</v>
       </c>
       <c r="K227" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M227" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N227" t="n">
         <v>0</v>
@@ -12648,16 +12648,16 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>2.73</v>
+        <v>1.94</v>
       </c>
       <c r="K228" t="n">
-        <v>1.16</v>
+        <v>0.38</v>
       </c>
       <c r="L228" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="M228" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N228" t="n">
         <v>0</v>
@@ -12677,34 +12677,34 @@
         <v>328</v>
       </c>
       <c r="D229" t="n">
-        <v>3.57</v>
+        <v>2.88</v>
       </c>
       <c r="E229" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
         <v>2.05</v>
       </c>
-      <c r="F229" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>2.89</v>
-      </c>
       <c r="K229" t="n">
-        <v>1.21</v>
+        <v>0.53</v>
       </c>
       <c r="L229" t="n">
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
       <c r="M229" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N229" t="n">
         <v>0</v>
@@ -12724,13 +12724,13 @@
         <v>329</v>
       </c>
       <c r="D230" t="n">
-        <v>4.16</v>
+        <v>3.54</v>
       </c>
       <c r="E230" t="n">
-        <v>2.74</v>
+        <v>1.54</v>
       </c>
       <c r="F230" t="n">
-        <v>1.26</v>
+        <v>0.41</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -12742,16 +12742,16 @@
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>3.2</v>
+        <v>2.57</v>
       </c>
       <c r="K230" t="n">
-        <v>1.76</v>
+        <v>0.79</v>
       </c>
       <c r="L230" t="n">
-        <v>0.53</v>
+        <v>0.07</v>
       </c>
       <c r="M230" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N230" t="n">
         <v>0</v>
@@ -12789,19 +12789,19 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>5.97</v>
+        <v>2.29</v>
       </c>
       <c r="K231" t="n">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="M231" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="O231" t="n">
         <v>0</v>
@@ -12836,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>1.44</v>
+        <v>0.2</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="M232" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N232" t="n">
         <v>0</v>
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="M233" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N233" t="n">
         <v>0</v>
@@ -12930,16 +12930,16 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>2.26</v>
+        <v>1.21</v>
       </c>
       <c r="K234" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M234" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="N234" t="n">
         <v>0</v>
@@ -12977,16 +12977,16 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>2.96</v>
+        <v>1.78</v>
       </c>
       <c r="K235" t="n">
-        <v>0.74</v>
+        <v>0.06</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="N235" t="n">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>2.08</v>
+        <v>0.5</v>
       </c>
       <c r="K236" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>0</v>
       </c>
       <c r="M236" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N236" t="n">
         <v>0</v>
@@ -13071,16 +13071,16 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>2.56</v>
+        <v>1.34</v>
       </c>
       <c r="K237" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>0</v>
       </c>
       <c r="M237" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="N237" t="n">
         <v>0</v>
@@ -13118,19 +13118,19 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>5.96</v>
+        <v>2.93</v>
       </c>
       <c r="K238" t="n">
-        <v>3.21</v>
+        <v>0.14</v>
       </c>
       <c r="L238" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O238" t="n">
         <v>0</v>
@@ -13147,13 +13147,13 @@
         <v>339</v>
       </c>
       <c r="D239" t="n">
-        <v>8.65</v>
+        <v>8.29</v>
       </c>
       <c r="E239" t="n">
-        <v>7</v>
+        <v>6.22</v>
       </c>
       <c r="F239" t="n">
-        <v>5.09</v>
+        <v>3.95</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -13165,16 +13165,16 @@
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="K239" t="n">
-        <v>1.01</v>
+        <v>0.36</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N239" t="n">
         <v>0</v>
@@ -13194,13 +13194,13 @@
         <v>340</v>
       </c>
       <c r="D240" t="n">
-        <v>6.49</v>
+        <v>6.1</v>
       </c>
       <c r="E240" t="n">
-        <v>4.8</v>
+        <v>3.96</v>
       </c>
       <c r="F240" t="n">
-        <v>2.84</v>
+        <v>1.64</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -13212,16 +13212,16 @@
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>1.84</v>
+        <v>1.08</v>
       </c>
       <c r="K240" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N240" t="n">
         <v>0</v>
@@ -13241,13 +13241,13 @@
         <v>341</v>
       </c>
       <c r="D241" t="n">
-        <v>6.91</v>
+        <v>6.65</v>
       </c>
       <c r="E241" t="n">
-        <v>5.8</v>
+        <v>5.24</v>
       </c>
       <c r="F241" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -13259,13 +13259,13 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>7.28</v>
+        <v>6.74</v>
       </c>
       <c r="K241" t="n">
-        <v>6.48</v>
+        <v>5.32</v>
       </c>
       <c r="L241" t="n">
-        <v>5.56</v>
+        <v>3.66</v>
       </c>
       <c r="M241" t="n">
         <v>0</v>
@@ -13288,16 +13288,16 @@
         <v>342</v>
       </c>
       <c r="D242" t="n">
-        <v>6.43</v>
+        <v>6.04</v>
       </c>
       <c r="E242" t="n">
-        <v>5.29</v>
+        <v>4.5</v>
       </c>
       <c r="F242" t="n">
-        <v>4.01</v>
+        <v>2.92</v>
       </c>
       <c r="G242" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>2.08</v>
+        <v>1.58</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="M242" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N242" t="n">
         <v>0</v>
@@ -13335,13 +13335,13 @@
         <v>343</v>
       </c>
       <c r="D243" t="n">
-        <v>7.12</v>
+        <v>6.77</v>
       </c>
       <c r="E243" t="n">
-        <v>5.26</v>
+        <v>4.52</v>
       </c>
       <c r="F243" t="n">
-        <v>3.11</v>
+        <v>2.02</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -13353,13 +13353,13 @@
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>5.46</v>
+        <v>4.95</v>
       </c>
       <c r="K243" t="n">
-        <v>3.11</v>
+        <v>2.12</v>
       </c>
       <c r="L243" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="M243" t="n">
         <v>0</v>
@@ -13382,13 +13382,13 @@
         <v>344</v>
       </c>
       <c r="D244" t="n">
-        <v>5.41</v>
+        <v>5.17</v>
       </c>
       <c r="E244" t="n">
-        <v>4.36</v>
+        <v>3.86</v>
       </c>
       <c r="F244" t="n">
-        <v>3.14</v>
+        <v>2.37</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -13429,13 +13429,13 @@
         <v>345</v>
       </c>
       <c r="D245" t="n">
-        <v>5.5</v>
+        <v>5.14</v>
       </c>
       <c r="E245" t="n">
-        <v>4.07</v>
+        <v>3.29</v>
       </c>
       <c r="F245" t="n">
-        <v>2.41</v>
+        <v>1.25</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -13447,13 +13447,13 @@
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>4.83</v>
+        <v>4.27</v>
       </c>
       <c r="K245" t="n">
-        <v>3.09</v>
+        <v>2.08</v>
       </c>
       <c r="L245" t="n">
-        <v>1.34</v>
+        <v>0.46</v>
       </c>
       <c r="M245" t="n">
         <v>0</v>
@@ -13476,13 +13476,13 @@
         <v>346</v>
       </c>
       <c r="D246" t="n">
-        <v>6.09</v>
+        <v>5.8</v>
       </c>
       <c r="E246" t="n">
-        <v>4.47</v>
+        <v>3.83</v>
       </c>
       <c r="F246" t="n">
-        <v>2.58</v>
+        <v>1.65</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -13494,10 +13494,10 @@
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="K246" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="L246" t="n">
         <v>0</v>
@@ -13523,13 +13523,13 @@
         <v>347</v>
       </c>
       <c r="D247" t="n">
-        <v>5.69</v>
+        <v>5.1</v>
       </c>
       <c r="E247" t="n">
-        <v>3.95</v>
+        <v>2.67</v>
       </c>
       <c r="F247" t="n">
-        <v>1.93</v>
+        <v>0.44</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -13541,13 +13541,13 @@
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>3.34</v>
+        <v>2.74</v>
       </c>
       <c r="K247" t="n">
-        <v>1.57</v>
+        <v>0.56</v>
       </c>
       <c r="L247" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="M247" t="n">
         <v>0</v>
@@ -13570,13 +13570,13 @@
         <v>348</v>
       </c>
       <c r="D248" t="n">
-        <v>5.4</v>
+        <v>5.09</v>
       </c>
       <c r="E248" t="n">
-        <v>3.98</v>
+        <v>3.32</v>
       </c>
       <c r="F248" t="n">
-        <v>2.34</v>
+        <v>1.43</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -13588,13 +13588,13 @@
         <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="K248" t="n">
-        <v>1.32</v>
+        <v>0.42</v>
       </c>
       <c r="L248" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M248" t="n">
         <v>0</v>
@@ -13617,13 +13617,13 @@
         <v>349</v>
       </c>
       <c r="D249" t="n">
-        <v>6.53</v>
+        <v>6.12</v>
       </c>
       <c r="E249" t="n">
-        <v>5.01</v>
+        <v>4.15</v>
       </c>
       <c r="F249" t="n">
-        <v>3.27</v>
+        <v>2.03</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -13635,13 +13635,13 @@
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>5.19</v>
+        <v>4.66</v>
       </c>
       <c r="K249" t="n">
-        <v>3.12</v>
+        <v>1.98</v>
       </c>
       <c r="L249" t="n">
-        <v>0.77</v>
+        <v>0.04</v>
       </c>
       <c r="M249" t="n">
         <v>0</v>
@@ -13664,13 +13664,13 @@
         <v>350</v>
       </c>
       <c r="D250" t="n">
-        <v>6.72</v>
+        <v>6.25</v>
       </c>
       <c r="E250" t="n">
-        <v>4.82</v>
+        <v>3.8</v>
       </c>
       <c r="F250" t="n">
-        <v>2.64</v>
+        <v>1.32</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -13682,13 +13682,13 @@
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>6.11</v>
+        <v>5.58</v>
       </c>
       <c r="K250" t="n">
-        <v>3.88</v>
+        <v>2.76</v>
       </c>
       <c r="L250" t="n">
-        <v>1.49</v>
+        <v>0.46</v>
       </c>
       <c r="M250" t="n">
         <v>0</v>
@@ -13711,13 +13711,13 @@
         <v>351</v>
       </c>
       <c r="D251" t="n">
-        <v>6.38</v>
+        <v>6</v>
       </c>
       <c r="E251" t="n">
-        <v>5.03</v>
+        <v>4.21</v>
       </c>
       <c r="F251" t="n">
-        <v>3.46</v>
+        <v>2.19</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -13729,16 +13729,16 @@
         <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>4.89</v>
+        <v>4.34</v>
       </c>
       <c r="K251" t="n">
-        <v>3.05</v>
+        <v>1.86</v>
       </c>
       <c r="L251" t="n">
-        <v>0.97</v>
+        <v>0.05</v>
       </c>
       <c r="M251" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N251" t="n">
         <v>0</v>
@@ -13758,13 +13758,13 @@
         <v>352</v>
       </c>
       <c r="D252" t="n">
-        <v>6.1</v>
+        <v>5.69</v>
       </c>
       <c r="E252" t="n">
-        <v>4.34</v>
+        <v>3.48</v>
       </c>
       <c r="F252" t="n">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -13776,13 +13776,13 @@
         <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>4.3</v>
+        <v>3.78</v>
       </c>
       <c r="K252" t="n">
-        <v>2.06</v>
+        <v>1.13</v>
       </c>
       <c r="L252" t="n">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="M252" t="n">
         <v>0</v>
@@ -13805,13 +13805,13 @@
         <v>354</v>
       </c>
       <c r="D253" t="n">
-        <v>6.58</v>
+        <v>6.12</v>
       </c>
       <c r="E253" t="n">
-        <v>5.21</v>
+        <v>4.23</v>
       </c>
       <c r="F253" t="n">
-        <v>3.64</v>
+        <v>2.24</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -13823,10 +13823,10 @@
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>4.42</v>
+        <v>3.63</v>
       </c>
       <c r="K253" t="n">
-        <v>2.15</v>
+        <v>0.45</v>
       </c>
       <c r="L253" t="n">
         <v>0</v>
@@ -13852,13 +13852,13 @@
         <v>355</v>
       </c>
       <c r="D254" t="n">
-        <v>8.82</v>
+        <v>8.33</v>
       </c>
       <c r="E254" t="n">
-        <v>7.12</v>
+        <v>6.06</v>
       </c>
       <c r="F254" t="n">
-        <v>5.13</v>
+        <v>3.42</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -13870,13 +13870,13 @@
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>7.85</v>
+        <v>7.31</v>
       </c>
       <c r="K254" t="n">
-        <v>5.95</v>
+        <v>4.8</v>
       </c>
       <c r="L254" t="n">
-        <v>3.74</v>
+        <v>1.95</v>
       </c>
       <c r="M254" t="n">
         <v>0</v>
@@ -13899,13 +13899,13 @@
         <v>356</v>
       </c>
       <c r="D255" t="n">
-        <v>7.69</v>
+        <v>7.22</v>
       </c>
       <c r="E255" t="n">
-        <v>6.21</v>
+        <v>5.21</v>
       </c>
       <c r="F255" t="n">
-        <v>4.48</v>
+        <v>2.87</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -13917,13 +13917,13 @@
         <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>6.37</v>
+        <v>5.79</v>
       </c>
       <c r="K255" t="n">
-        <v>4.56</v>
+        <v>3.4</v>
       </c>
       <c r="L255" t="n">
-        <v>2.6</v>
+        <v>1.06</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
@@ -13946,13 +13946,13 @@
         <v>357</v>
       </c>
       <c r="D256" t="n">
-        <v>5.22</v>
+        <v>4.61</v>
       </c>
       <c r="E256" t="n">
-        <v>3.07</v>
+        <v>1.93</v>
       </c>
       <c r="F256" t="n">
-        <v>1.1</v>
+        <v>0.37</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -13964,13 +13964,13 @@
         <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>4.08</v>
+        <v>3.43</v>
       </c>
       <c r="K256" t="n">
-        <v>1.87</v>
+        <v>0.76</v>
       </c>
       <c r="L256" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="M256" t="n">
         <v>0</v>
@@ -13993,13 +13993,13 @@
         <v>358</v>
       </c>
       <c r="D257" t="n">
-        <v>4.62</v>
+        <v>4.03</v>
       </c>
       <c r="E257" t="n">
-        <v>3.03</v>
+        <v>1.8</v>
       </c>
       <c r="F257" t="n">
-        <v>1.29</v>
+        <v>0.34</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -14011,13 +14011,13 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>3.72</v>
+        <v>2.98</v>
       </c>
       <c r="K257" t="n">
-        <v>1.95</v>
+        <v>0.49</v>
       </c>
       <c r="L257" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="M257" t="n">
         <v>0</v>
@@ -14040,13 +14040,13 @@
         <v>359</v>
       </c>
       <c r="D258" t="n">
-        <v>6.26</v>
+        <v>5.71</v>
       </c>
       <c r="E258" t="n">
-        <v>4.81</v>
+        <v>3.66</v>
       </c>
       <c r="F258" t="n">
-        <v>3.17</v>
+        <v>1.76</v>
       </c>
       <c r="G258" t="n">
         <v>0</v>
@@ -14058,13 +14058,13 @@
         <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>4.03</v>
+        <v>3.3</v>
       </c>
       <c r="K258" t="n">
-        <v>2.37</v>
+        <v>1.14</v>
       </c>
       <c r="L258" t="n">
-        <v>0.92</v>
+        <v>0.34</v>
       </c>
       <c r="M258" t="n">
         <v>0</v>
@@ -14087,13 +14087,13 @@
         <v>360</v>
       </c>
       <c r="D259" t="n">
-        <v>5.11</v>
+        <v>4.57</v>
       </c>
       <c r="E259" t="n">
-        <v>3.53</v>
+        <v>2.41</v>
       </c>
       <c r="F259" t="n">
-        <v>1.78</v>
+        <v>0.68</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
@@ -14105,13 +14105,13 @@
         <v>0</v>
       </c>
       <c r="J259" t="n">
-        <v>4</v>
+        <v>3.26</v>
       </c>
       <c r="K259" t="n">
-        <v>2.26</v>
+        <v>0.91</v>
       </c>
       <c r="L259" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="M259" t="n">
         <v>0</v>
@@ -14134,13 +14134,13 @@
         <v>361</v>
       </c>
       <c r="D260" t="n">
-        <v>5.36</v>
+        <v>4.79</v>
       </c>
       <c r="E260" t="n">
-        <v>3.66</v>
+        <v>2.5</v>
       </c>
       <c r="F260" t="n">
-        <v>1.9</v>
+        <v>0.75</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>
@@ -14152,13 +14152,13 @@
         <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>3.51</v>
+        <v>2.85</v>
       </c>
       <c r="K260" t="n">
-        <v>1.51</v>
+        <v>0.61</v>
       </c>
       <c r="L260" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="M260" t="n">
         <v>0</v>
@@ -14181,13 +14181,13 @@
         <v>362</v>
       </c>
       <c r="D261" t="n">
-        <v>7.28</v>
+        <v>6.76</v>
       </c>
       <c r="E261" t="n">
-        <v>5.64</v>
+        <v>4.51</v>
       </c>
       <c r="F261" t="n">
-        <v>3.72</v>
+        <v>1.99</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
@@ -14199,13 +14199,13 @@
         <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>2.82</v>
+        <v>2.27</v>
       </c>
       <c r="K261" t="n">
-        <v>1.3</v>
+        <v>0.43</v>
       </c>
       <c r="L261" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M261" t="n">
         <v>0</v>
